--- a/baseline_model/data/Staging_Area_loc.xlsx
+++ b/baseline_model/data/Staging_Area_loc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_term\baseline_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\baseline_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D916A57-6631-4FEE-A3BF-E4CA064C22F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D06FB17-09DB-4950-B7AE-6044F57AAE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Warehouse_FEMA_4" sheetId="1" r:id="rId1"/>
@@ -928,7 +928,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
